--- a/db/dummydata/gateway/gateway__freight_rates.xlsx
+++ b/db/dummydata/gateway/gateway__freight_rates.xlsx
@@ -178,7 +178,7 @@
     <t>Bengaluru</t>
   </si>
   <si>
-    <t>demo@cpworldindien.com</t>
+    <t>priya.v@chn.cpworldindia.com</t>
   </si>
   <si>
     <t>info@go2wwl.com</t>
@@ -205,10 +205,10 @@
     <t>Karachi</t>
   </si>
   <si>
-    <t>demo@cpworldpakistan.com</t>
-  </si>
-  <si>
-    <t>demo@excelpakistan.com</t>
+    <t>asif.javeed@pk.cpworldgroup.com</t>
+  </si>
+  <si>
+    <t>karachi@excelfrt.com</t>
   </si>
   <si>
     <t>enquiry@jmsunionfreight.com.sg</t>
@@ -220,7 +220,7 @@
     <t>sin@shipco.com</t>
   </si>
   <si>
-    <t>demo@cfrfreight.com</t>
+    <t>BDube@cfrfreight.co.za</t>
   </si>
   <si>
     <t>Durban</t>
@@ -403,11 +403,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" t="s">
+      <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D45" t="s">
@@ -2696,7 +2696,7 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" t="s">
+      <c r="A48" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D48" t="s">
@@ -2837,7 +2837,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" t="s">
+      <c r="A51" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D51" t="s">
@@ -2978,7 +2978,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
+      <c r="A54" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D54" t="s">
@@ -3166,7 +3166,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D58" t="s">
@@ -3213,7 +3213,7 @@
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
       <c r="D59" t="s">
@@ -3354,7 +3354,7 @@
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D62" t="s">
@@ -3448,7 +3448,7 @@
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D64" t="s">
@@ -3542,7 +3542,7 @@
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D66" t="s">
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D68" t="s">
@@ -3730,7 +3730,7 @@
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D70" t="s">
@@ -4341,7 +4341,7 @@
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D83" t="s">
@@ -4359,7 +4359,7 @@
       <c r="H83" t="s">
         <v>24</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="6" t="s">
         <v>89</v>
       </c>
       <c r="J83" s="1">
@@ -4388,7 +4388,7 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
       <c r="D84" t="s">
@@ -4406,7 +4406,7 @@
       <c r="H84" t="s">
         <v>24</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J84" s="1">
@@ -4435,7 +4435,7 @@
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D85" t="s">
@@ -4456,7 +4456,7 @@
       <c r="I85" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="6">
         <v>39.0</v>
       </c>
       <c r="K85">
@@ -4474,15 +4474,15 @@
       <c r="O85" t="s">
         <v>29</v>
       </c>
-      <c r="P85" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q85" s="7">
+      <c r="P85" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q85" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D86" t="s">
@@ -4503,7 +4503,7 @@
       <c r="I86" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="6">
         <v>39.0</v>
       </c>
       <c r="K86">
@@ -4521,15 +4521,15 @@
       <c r="O86" t="s">
         <v>29</v>
       </c>
-      <c r="P86" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q86" s="7">
+      <c r="P86" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q86" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D87" t="s">
@@ -4550,7 +4550,7 @@
       <c r="I87" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="6">
         <v>39.0</v>
       </c>
       <c r="K87">
@@ -4568,15 +4568,15 @@
       <c r="O87" t="s">
         <v>29</v>
       </c>
-      <c r="P87" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q87" s="7">
+      <c r="P87" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q87" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D88" t="s">
@@ -4597,7 +4597,7 @@
       <c r="I88" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="6">
         <v>39.0</v>
       </c>
       <c r="K88">
@@ -4615,15 +4615,15 @@
       <c r="O88" t="s">
         <v>29</v>
       </c>
-      <c r="P88" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q88" s="7">
+      <c r="P88" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q88" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D89" t="s">
@@ -4644,7 +4644,7 @@
       <c r="I89" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="6">
         <v>39.0</v>
       </c>
       <c r="K89">
@@ -4662,15 +4662,15 @@
       <c r="O89" t="s">
         <v>29</v>
       </c>
-      <c r="P89" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q89" s="7">
+      <c r="P89" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q89" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D90" t="s">
@@ -4691,7 +4691,7 @@
       <c r="I90" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="6">
         <v>39.0</v>
       </c>
       <c r="K90">
@@ -4709,15 +4709,15 @@
       <c r="O90" t="s">
         <v>29</v>
       </c>
-      <c r="P90" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q90" s="7">
+      <c r="P90" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q90" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D91" t="s">
@@ -4738,7 +4738,7 @@
       <c r="I91" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="6">
         <v>39.0</v>
       </c>
       <c r="K91">
@@ -4756,15 +4756,15 @@
       <c r="O91" t="s">
         <v>29</v>
       </c>
-      <c r="P91" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q91" s="7">
+      <c r="P91" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q91" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D92" t="s">
@@ -4785,7 +4785,7 @@
       <c r="I92" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="6">
         <v>39.0</v>
       </c>
       <c r="K92">
@@ -4803,15 +4803,15 @@
       <c r="O92" t="s">
         <v>29</v>
       </c>
-      <c r="P92" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q92" s="7">
+      <c r="P92" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q92" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D93" t="s">
@@ -4832,7 +4832,7 @@
       <c r="I93" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="6">
         <v>39.0</v>
       </c>
       <c r="K93">
@@ -4850,15 +4850,15 @@
       <c r="O93" t="s">
         <v>29</v>
       </c>
-      <c r="P93" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q93" s="7">
+      <c r="P93" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q93" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D94" t="s">
@@ -4879,7 +4879,7 @@
       <c r="I94" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="6">
         <v>39.0</v>
       </c>
       <c r="K94">
@@ -4897,15 +4897,15 @@
       <c r="O94" t="s">
         <v>29</v>
       </c>
-      <c r="P94" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q94" s="7">
+      <c r="P94" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q94" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D95" t="s">
@@ -4926,7 +4926,7 @@
       <c r="I95" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="6">
         <v>39.0</v>
       </c>
       <c r="K95">
@@ -4944,15 +4944,15 @@
       <c r="O95" t="s">
         <v>29</v>
       </c>
-      <c r="P95" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q95" s="7">
+      <c r="P95" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q95" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D96" t="s">
@@ -4973,7 +4973,7 @@
       <c r="I96" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="6">
         <v>39.0</v>
       </c>
       <c r="K96">
@@ -4991,15 +4991,15 @@
       <c r="O96" t="s">
         <v>29</v>
       </c>
-      <c r="P96" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q96" s="7">
+      <c r="P96" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q96" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D97" t="s">
@@ -5020,7 +5020,7 @@
       <c r="I97" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="6">
         <v>39.0</v>
       </c>
       <c r="K97">
@@ -5038,15 +5038,15 @@
       <c r="O97" t="s">
         <v>29</v>
       </c>
-      <c r="P97" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q97" s="7">
+      <c r="P97" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q97" s="6">
         <v>35.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D98" t="s">
@@ -5064,10 +5064,10 @@
       <c r="H98" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="6">
         <v>39.0</v>
       </c>
       <c r="K98">
@@ -5085,10 +5085,10 @@
       <c r="O98" t="s">
         <v>29</v>
       </c>
-      <c r="P98" s="7">
-        <v>35.0</v>
-      </c>
-      <c r="Q98" s="7">
+      <c r="P98" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="Q98" s="6">
         <v>35.0</v>
       </c>
     </row>
